--- a/assessment/assessment.xlsx
+++ b/assessment/assessment.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data-loss-prevention\assessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97C9F8F-C669-4E51-BB34-5BF4A15A9E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906574F9-3F15-48E8-BB4D-61A1DB3FE363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="File Server" sheetId="1" r:id="rId1"/>
+    <sheet name="WebServer" sheetId="2" r:id="rId2"/>
+    <sheet name="Mail Server" sheetId="4" r:id="rId3"/>
+    <sheet name="Domain Server" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,10 +27,149 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="42">
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>Threat User</t>
+  </si>
+  <si>
+    <t>Threat Actor</t>
+  </si>
+  <si>
+    <t>Vulnerability</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Impact Score</t>
+  </si>
+  <si>
+    <t>Explosure</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>Reverse</t>
+  </si>
+  <si>
+    <t>Likelyhood Score</t>
+  </si>
+  <si>
+    <t>Threat Action</t>
+  </si>
+  <si>
+    <t>Kẻ tấn công</t>
+  </si>
+  <si>
+    <t>Nghe lén</t>
+  </si>
+  <si>
+    <t>Không sử dụng các giao thức mã hóa trên đường truyền/Dùng các thuật toán mã hóa yếu.</t>
+  </si>
+  <si>
+    <t>Nhân viên</t>
+  </si>
+  <si>
+    <t>Cắm USB</t>
+  </si>
+  <si>
+    <t>Không có cơ chế kiểm soát các thiết bị ngoại vi dẫn đến có thể nhiễm mã độc tống tiền.</t>
+  </si>
+  <si>
+    <t>Tài xuống</t>
+  </si>
+  <si>
+    <t>Không có cơ chế kiểm soát hành động tải tệp/Không có cơ chế kiểm tra tệp được tải về có chứa mã độc tống tiền hay không.</t>
+  </si>
+  <si>
+    <t>Tự  nhiên</t>
+  </si>
+  <si>
+    <t>Lũ lụt</t>
+  </si>
+  <si>
+    <t>Cháy</t>
+  </si>
+  <si>
+    <t>Không rõ</t>
+  </si>
+  <si>
+    <t>Không có các trang bị, hệ thống thực hiện phòng cháy chữa cháy</t>
+  </si>
+  <si>
+    <t>Hệ thống mạng được triển khai tại vị trí hay có lũ lụt xảy ra dẫn đến kết nối mạng ra Internet thường xuyên bị gián đoạn</t>
+  </si>
+  <si>
+    <t>Trộm</t>
+  </si>
+  <si>
+    <t>Dánh cắp</t>
+  </si>
+  <si>
+    <t>Không có bảo vệ canh gác, không trang bị camera</t>
+  </si>
+  <si>
+    <t>Tải tệp lên</t>
+  </si>
+  <si>
+    <t>Không có tường lửa chuyên dụng để kiểm tra tệp được tải lên có phải/chứa mã độc tống tiền hay không.</t>
+  </si>
+  <si>
+    <t>Người dùng/Kẻ tấn công</t>
+  </si>
+  <si>
+    <t>Request</t>
+  </si>
+  <si>
+    <t>Không có tường lửa chuyên dụng để kiểm tra payload của request có chứa mã SQL độc hại hay không</t>
+  </si>
+  <si>
+    <t>DDoS</t>
+  </si>
+  <si>
+    <t>Tấn công DDoS</t>
+  </si>
+  <si>
+    <t>Không có tường lửa chuyên dụng để phát hiện cuộc tấn công DDoS vào Web server.</t>
+  </si>
+  <si>
+    <t>Nhấn vào liên kết</t>
+  </si>
+  <si>
+    <t>Không sử dụng dịch vụ quản lý email nhằm phát hiện có các liên kết độc hại dẫn đến cài đặt mã độc Ransomware</t>
+  </si>
+  <si>
+    <t>Không có tường lửa chuyên dụng để bảo vệ Domain Server trước tấn công DDoS.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -55,8 +197,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -337,14 +488,782 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="4" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37" style="1" customWidth="1"/>
+    <col min="5" max="7" width="7.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="17" style="3" customWidth="1"/>
+    <col min="9" max="9" width="13" style="3" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="13" style="3" customWidth="1"/>
+    <col min="13" max="13" width="15.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="3">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3">
+        <v>5</v>
+      </c>
+      <c r="H3" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2</v>
+      </c>
+      <c r="G4" s="3">
+        <v>5</v>
+      </c>
+      <c r="H4" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4</v>
+      </c>
+      <c r="G5" s="3">
+        <v>5</v>
+      </c>
+      <c r="H5" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="3">
+        <v>5</v>
+      </c>
+      <c r="F6" s="3">
+        <v>5</v>
+      </c>
+      <c r="G6" s="3">
+        <v>5</v>
+      </c>
+      <c r="H6" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="3">
+        <v>5</v>
+      </c>
+      <c r="F7" s="3">
+        <v>5</v>
+      </c>
+      <c r="G7" s="3">
+        <v>5</v>
+      </c>
+      <c r="H7" s="3">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA1C5AF-0776-4ED2-BFB3-AB6484C0D78C}">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.6640625" style="1" customWidth="1"/>
+    <col min="5" max="7" width="8.88671875" style="3"/>
+    <col min="8" max="8" width="19.109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="14" style="3" customWidth="1"/>
+    <col min="10" max="10" width="17" style="3" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="3"/>
+    <col min="12" max="12" width="13.44140625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="19" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3">
+        <v>5</v>
+      </c>
+      <c r="H2" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="3">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>5</v>
+      </c>
+      <c r="H4" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4</v>
+      </c>
+      <c r="G5" s="3">
+        <v>5</v>
+      </c>
+      <c r="H5" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="3">
+        <v>5</v>
+      </c>
+      <c r="F6" s="3">
+        <v>5</v>
+      </c>
+      <c r="G6" s="3">
+        <v>5</v>
+      </c>
+      <c r="H6" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="3">
+        <v>5</v>
+      </c>
+      <c r="F7" s="3">
+        <v>5</v>
+      </c>
+      <c r="G7" s="3">
+        <v>5</v>
+      </c>
+      <c r="H7" s="3">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A01FE70-EF0E-4B79-B3F6-7383C717CE5F}">
+  <dimension ref="A1:M5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="16.44140625" style="1"/>
+    <col min="4" max="4" width="40.5546875" style="1" customWidth="1"/>
+    <col min="5" max="7" width="11" style="3" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" style="3"/>
+    <col min="9" max="12" width="13.44140625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="16.44140625" style="3"/>
+    <col min="14" max="16384" width="16.44140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="3">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>4</v>
+      </c>
+      <c r="G3" s="3">
+        <v>5</v>
+      </c>
+      <c r="H3" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="3">
+        <v>5</v>
+      </c>
+      <c r="F4" s="3">
+        <v>5</v>
+      </c>
+      <c r="G4" s="3">
+        <v>5</v>
+      </c>
+      <c r="H4" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="3">
+        <v>5</v>
+      </c>
+      <c r="F5" s="3">
+        <v>5</v>
+      </c>
+      <c r="G5" s="3">
+        <v>5</v>
+      </c>
+      <c r="H5" s="3">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4646304-14D0-45B1-A290-1CE42A263D1E}">
+  <dimension ref="A1:M5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" style="1" customWidth="1"/>
+    <col min="5" max="7" width="10.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="14.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>4</v>
+      </c>
+      <c r="G3" s="3">
+        <v>5</v>
+      </c>
+      <c r="H3" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="3">
+        <v>5</v>
+      </c>
+      <c r="F4" s="3">
+        <v>5</v>
+      </c>
+      <c r="G4" s="3">
+        <v>5</v>
+      </c>
+      <c r="H4" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="3">
+        <v>5</v>
+      </c>
+      <c r="F5" s="3">
+        <v>5</v>
+      </c>
+      <c r="G5" s="3">
+        <v>5</v>
+      </c>
+      <c r="H5" s="3">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>